--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://camsys-my.sharepoint.com/personal/sboone_camsys_com/Documents/Documents/CS_Documents/Personal Projects/dashlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://camsys-my.sharepoint.com/personal/sboone_camsys_com/Documents/Documents/CS_Documents/Personal Projects/dashlit/streamlit_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_F25DC773A252ABDACC10482A31184C1C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE34A5E6-3027-4939-ACCA-6DB7E0B7936B}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_F25DC773A252ABDACC10482A31184C1C5ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A78A39C7-38A3-4DDD-B4EE-50C7C4DCB8E8}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7190" yWindow="4680" windowWidth="9080" windowHeight="6170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ridership" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -454,7 +454,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(10,2000)</f>
-        <v>771</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -472,7 +472,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E17" ca="1" si="0">RANDBETWEEN(10,2000)</f>
-        <v>1249</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -490,7 +490,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -508,7 +508,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>526</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -526,7 +526,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -544,7 +544,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>856</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -562,7 +562,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>431</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -580,7 +580,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1255</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -598,7 +598,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>725</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -616,7 +616,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -634,7 +634,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>678</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -652,7 +652,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>696</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -670,7 +670,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1105</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -688,7 +688,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>1942</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -706,7 +706,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>261</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -724,7 +724,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>1232</v>
       </c>
     </row>
   </sheetData>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CA04BA-950B-4681-B772-C0BEA3486BEA}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,12 +794,12 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f>C2</f>
-        <v>1.5</v>
+        <f>0.5*C2</f>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <f>D2</f>
-        <v>1.5</v>
+        <f>0.5*D2</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -810,12 +810,12 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f>C3</f>
-        <v>1</v>
+        <f>0.5*C3</f>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <f>D3</f>
-        <v>1</v>
+        <f>0.5*D3</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
